--- a/OPIDDaily/Uploads/Voided Checks Bird People.xlsx
+++ b/OPIDDaily/Uploads/Voided Checks Bird People.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Apricot\OPID\Voided Checks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78906463-D7D2-46E3-BEFF-6CE4184BA81B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97981D88-1F26-4E6D-9E70-8FC95A41D238}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="36990" yWindow="7695" windowWidth="17280" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Type</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>Client, Unknown</t>
+  </si>
+  <si>
+    <t>Heron, Hazel</t>
   </si>
 </sst>
 </file>
@@ -404,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -484,6 +487,20 @@
         <v>12</v>
       </c>
     </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3">
+        <v>43885</v>
+      </c>
+      <c r="E4">
+        <v>14648</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
